--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Weclapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4514FE-F6D5-4884-BF40-EC1B8AEA98EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D289FF-6BAF-41BD-BC43-F18B4181F4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{4ED8DB11-3E4C-45D5-B74D-65A88CDB82A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{77825C49-43D2-414B-AAFA-B0A602ADC8A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="92">
   <si>
@@ -124,9 +162,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>Weclapp: Custom Entity</t>
-  </si>
-  <si>
     <t>personCompany</t>
   </si>
   <si>
@@ -316,9 +351,6 @@
     <t xml:space="preserve">Group 2 </t>
   </si>
   <si>
-    <t>weclapp: Custom Entity</t>
-  </si>
-  <si>
     <t>weclapp:  Kontakt</t>
   </si>
   <si>
@@ -341,13 +373,19 @@
   </si>
   <si>
     <t>weclapp: Lieferant</t>
+  </si>
+  <si>
+    <t>Weclapp: Additional Entity</t>
+  </si>
+  <si>
+    <t>weclapp: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +467,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1884,36 +1929,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1932,6 +1962,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1941,18 +1980,27 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1962,9 +2010,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4137,11 +4182,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:JF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4178,7 +4223,7 @@
     </row>
     <row r="2" spans="1:266" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:266" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4191,48 +4236,48 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="O4" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="S4" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="W4" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="O4" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="S4" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="W4" s="113" t="s">
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="AA4" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AE4" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="AA4" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="113"/>
-      <c r="AE4" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="116"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="133"/>
     </row>
     <row r="5" spans="1:266" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:266" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4339,7 +4384,7 @@
     </row>
     <row r="8" spans="1:266" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>14</v>
@@ -4348,25 +4393,25 @@
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="G8" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="20"/>
       <c r="M8" s="21"/>
       <c r="O8" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R8" s="57"/>
       <c r="S8" s="19"/>
@@ -4374,13 +4419,13 @@
       <c r="U8" s="21"/>
       <c r="V8" s="57"/>
       <c r="W8" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="Y8" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="57"/>
       <c r="AA8" s="32"/>
@@ -4632,10 +4677,10 @@
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="G9" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>18</v>
@@ -4644,10 +4689,10 @@
       <c r="L9" s="20"/>
       <c r="M9" s="21"/>
       <c r="O9" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>18</v>
@@ -4656,10 +4701,10 @@
       <c r="T9" s="20"/>
       <c r="U9" s="21"/>
       <c r="W9" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="21" t="s">
         <v>18</v>
@@ -4680,10 +4725,10 @@
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>18</v>
@@ -4692,10 +4737,10 @@
       <c r="L10" s="20"/>
       <c r="M10" s="21"/>
       <c r="O10" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>18</v>
@@ -4704,10 +4749,10 @@
       <c r="T10" s="20"/>
       <c r="U10" s="21"/>
       <c r="W10" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" s="21" t="s">
         <v>18</v>
@@ -4721,17 +4766,17 @@
     </row>
     <row r="11" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="G11" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>18</v>
@@ -4740,10 +4785,10 @@
       <c r="L11" s="20"/>
       <c r="M11" s="21"/>
       <c r="O11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="21" t="s">
         <v>18</v>
@@ -4752,10 +4797,10 @@
       <c r="T11" s="20"/>
       <c r="U11" s="21"/>
       <c r="W11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" s="21" t="s">
         <v>18</v>
@@ -4769,14 +4814,14 @@
     </row>
     <row r="12" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="G12" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>16</v>
@@ -4788,7 +4833,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
       <c r="O12" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="20" t="s">
         <v>16</v>
@@ -4800,7 +4845,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="21"/>
       <c r="W12" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X12" s="20" t="s">
         <v>16</v>
@@ -4817,26 +4862,26 @@
     </row>
     <row r="13" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="G13" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="21" t="s">
         <v>18</v>
@@ -4845,10 +4890,10 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
       <c r="S13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" s="21" t="s">
         <v>18</v>
@@ -4857,10 +4902,10 @@
       <c r="X13" s="20"/>
       <c r="Y13" s="21"/>
       <c r="AA13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB13" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC13" s="21" t="s">
         <v>18</v>
@@ -4871,62 +4916,62 @@
     </row>
     <row r="14" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="G14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T14" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X14" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC14" s="21" t="s">
         <v>18</v>
@@ -4937,65 +4982,65 @@
     </row>
     <row r="15" spans="1:266" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="G15" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="R15" s="57"/>
       <c r="S15" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="V15" s="57"/>
       <c r="W15" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="Z15" s="57"/>
       <c r="AA15" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB15" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC15" s="21" t="s">
         <v>18</v>
@@ -5239,62 +5284,62 @@
     </row>
     <row r="16" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="G16" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W16" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X16" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA16" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB16" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC16" s="21" t="s">
         <v>18</v>
@@ -5305,62 +5350,62 @@
     </row>
     <row r="17" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
       <c r="G17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC17" s="21" t="s">
         <v>18</v>
@@ -5371,62 +5416,62 @@
     </row>
     <row r="18" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="G18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA18" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB18" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC18" s="21" t="s">
         <v>18</v>
@@ -5437,62 +5482,62 @@
     </row>
     <row r="19" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="G19" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W19" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X19" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA19" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC19" s="21" t="s">
         <v>18</v>
@@ -5503,62 +5548,62 @@
     </row>
     <row r="20" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="29"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
       <c r="G20" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W20" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X20" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA20" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB20" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC20" s="21" t="s">
         <v>18</v>
@@ -5579,7 +5624,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>18</v>
@@ -5588,7 +5633,7 @@
         <v>8</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="21" t="s">
         <v>18</v>
@@ -5597,7 +5642,7 @@
         <v>8</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="21" t="s">
         <v>18</v>
@@ -5607,7 +5652,7 @@
         <v>8</v>
       </c>
       <c r="T21" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>18</v>
@@ -5617,7 +5662,7 @@
         <v>8</v>
       </c>
       <c r="X21" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y21" s="21" t="s">
         <v>18</v>
@@ -5627,7 +5672,7 @@
         <v>8</v>
       </c>
       <c r="AB21" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC21" s="21" t="s">
         <v>18</v>
@@ -5878,55 +5923,55 @@
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="G22" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22" s="21" t="s">
         <v>18</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="21" t="s">
         <v>18</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U22" s="21" t="s">
         <v>18</v>
       </c>
       <c r="W22" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AA22" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC22" s="21" t="s">
         <v>18</v>
@@ -6003,17 +6048,17 @@
     </row>
     <row r="24" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
       <c r="D24" s="30"/>
       <c r="E24" s="31"/>
       <c r="G24" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>18</v>
@@ -6039,7 +6084,7 @@
     </row>
     <row r="25" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="39"/>
@@ -6049,22 +6094,22 @@
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
       <c r="K25" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
@@ -6081,7 +6126,7 @@
     </row>
     <row r="26" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="39"/>
@@ -6091,40 +6136,40 @@
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="K26" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S26" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W26" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X26" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y26" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA26" s="19"/>
       <c r="AB26" s="20"/>
@@ -6206,61 +6251,61 @@
       <c r="AG29" s="51"/>
     </row>
     <row r="30" spans="1:266" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129"/>
-      <c r="G30" s="123" t="s">
+      <c r="A30" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="110"/>
+      <c r="G30" s="127" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="128"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="128"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="124"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="123" t="s">
+      <c r="P30" s="122"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="L30" s="124"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="T30" s="121"/>
-      <c r="U30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="123"/>
       <c r="V30" s="59"/>
-      <c r="W30" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="122"/>
+      <c r="W30" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="123"/>
       <c r="Z30" s="59"/>
-      <c r="AA30" s="120" t="s">
+      <c r="AA30" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB30" s="122"/>
+      <c r="AC30" s="123"/>
+      <c r="AE30" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="122"/>
-      <c r="AE30" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF30" s="118"/>
-      <c r="AG30" s="119"/>
+      <c r="AF30" s="119"/>
+      <c r="AG30" s="120"/>
       <c r="AH30" s="59"/>
     </row>
     <row r="31" spans="1:266" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="60" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
@@ -6336,15 +6381,15 @@
     </row>
     <row r="32" spans="1:266" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="69" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>70</v>
       </c>
       <c r="C32" s="70"/>
       <c r="D32" s="69"/>
       <c r="E32" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
@@ -6373,7 +6418,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="74"/>
       <c r="C33" s="75"/>
@@ -6406,7 +6451,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="76"/>
       <c r="C34" s="77"/>
@@ -6439,7 +6484,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="76"/>
       <c r="C35" s="77"/>
@@ -6472,7 +6517,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="76"/>
       <c r="C36" s="77"/>
@@ -6505,7 +6550,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="76"/>
       <c r="C37" s="77"/>
@@ -6538,7 +6583,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
@@ -6571,7 +6616,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="76"/>
       <c r="C39" s="77"/>
@@ -6604,7 +6649,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="76"/>
       <c r="C40" s="77"/>
@@ -6637,7 +6682,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="76"/>
       <c r="C41" s="77"/>
@@ -6670,7 +6715,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="79"/>
       <c r="C42" s="80"/>
@@ -6733,15 +6778,15 @@
       <c r="AG43" s="89"/>
     </row>
     <row r="44" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="132" t="s">
+      <c r="A44" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="11" t="s">
@@ -6813,7 +6858,7 @@
     </row>
     <row r="45" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="74"/>
       <c r="C45" s="75"/>
@@ -6846,7 +6891,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="76"/>
       <c r="C46" s="77"/>
@@ -6879,7 +6924,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="76"/>
       <c r="C47" s="77"/>
@@ -6912,7 +6957,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="76"/>
       <c r="C48" s="77"/>
@@ -6945,7 +6990,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="76"/>
       <c r="C49" s="77"/>
@@ -6978,7 +7023,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="76"/>
       <c r="C50" s="77"/>
@@ -7011,7 +7056,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="77"/>
@@ -7044,7 +7089,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" s="76"/>
       <c r="C52" s="77"/>
@@ -7077,7 +7122,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="76"/>
       <c r="C53" s="77"/>
@@ -7110,7 +7155,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="79"/>
       <c r="C54" s="80"/>
@@ -7188,15 +7233,15 @@
       <c r="Z56"/>
     </row>
     <row r="57" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="137" t="s">
+      <c r="A57" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="139" t="s">
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117" t="s">
         <v>2</v>
       </c>
       <c r="G57" s="11" t="s">
@@ -7264,14 +7309,14 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="134" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="135"/>
-      <c r="D58" s="136"/>
+      <c r="A58" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="138"/>
+      <c r="D58" s="139"/>
       <c r="E58" s="52"/>
       <c r="G58" s="32"/>
       <c r="H58" s="33"/>
@@ -7297,13 +7342,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="108"/>
-      <c r="D59" s="109"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="125"/>
+      <c r="D59" s="126"/>
       <c r="E59" s="54"/>
       <c r="G59" s="32"/>
       <c r="H59" s="33"/>
@@ -7329,13 +7374,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="108"/>
-      <c r="D60" s="109"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="125"/>
+      <c r="D60" s="126"/>
       <c r="E60" s="54"/>
       <c r="G60" s="32"/>
       <c r="H60" s="33"/>
@@ -7361,13 +7406,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="108"/>
-      <c r="D61" s="109"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="125"/>
+      <c r="D61" s="126"/>
       <c r="E61" s="54"/>
       <c r="G61" s="32"/>
       <c r="H61" s="33"/>
@@ -7393,9 +7438,9 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="109"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="126"/>
       <c r="E62" s="54"/>
       <c r="G62" s="32"/>
       <c r="H62" s="33"/>
@@ -7421,9 +7466,9 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="109"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="126"/>
       <c r="E63" s="54"/>
       <c r="G63" s="32"/>
       <c r="H63" s="33"/>
@@ -7449,9 +7494,9 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="109"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="126"/>
       <c r="E64" s="54"/>
       <c r="G64" s="32"/>
       <c r="H64" s="33"/>
@@ -7477,9 +7522,9 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="109"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="126"/>
       <c r="E65" s="54"/>
       <c r="G65" s="32"/>
       <c r="H65" s="33"/>
@@ -7505,9 +7550,9 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="53"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="109"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="126"/>
       <c r="E66" s="54"/>
       <c r="G66" s="32"/>
       <c r="H66" s="33"/>
@@ -7533,9 +7578,9 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="53"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="109"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="126"/>
       <c r="E67" s="54"/>
       <c r="G67" s="32"/>
       <c r="H67" s="33"/>
@@ -7561,9 +7606,9 @@
     </row>
     <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55"/>
-      <c r="B68" s="110"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="112"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="136"/>
       <c r="E68" s="56"/>
       <c r="G68" s="47"/>
       <c r="H68" s="48"/>
@@ -7597,21 +7642,6 @@
     <protectedRange sqref="N32:N43 J32:J43 R32:R43 A32:F43 A45:U55 W45:Y55 AA45:AC55" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="25">
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
@@ -7622,6 +7652,21 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B64:D64"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="W30:Y30"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:Q29 Z8:Z29 B27:Q27 B8:N26 O7:Q7 O13:Q26 P8:Q12 AD9:AO14 AD16:AO20 AD15:AG15 AD23:AO29 AD21:AG22 AD8:AG8">
     <cfRule type="expression" dxfId="141" priority="159">
@@ -8191,19 +8236,17 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D28 C45:D55 C32:D43" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG58:AG68 U7:U28 I58:I68 Q58:Q68 AC58:AC68 I7:I28 AC32:AC43 M58:M68 M7:M28 AC7:AC28 Y7:Y28 U58:U68 Y58:Y68 Q7:Q28 Q32:Q43 M32:M43 I32:I43 AG45:AG55 AG32:AG43 U32:U43 Y32:Y43 AG7:AG28" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q45:Q55 I45:I55 M45:M55 U45:U55 Y45:Y55 AC45:AC55" xr:uid="{324C884A-4163-4070-B3A3-8C6CCEB8E9EC}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 AC7:AC28 AG6:AG28 I32:I43 M32:M43 Q32:Q43 U32:U43 Y32:Y43 AC32:AC43 AG32:AG43 I45:I55 M45:M55 Q45:Q55 U45:U55 Y45:Y55 AC45:AC55 AG45:AG55 I58:I68 M58:M68 Q58:Q68 U58:U68 Y58:Y68 AC59:AC68 AC58 AG58:AG68" xr:uid="{3D2F43C1-D88C-4CC7-8BFA-DAC90DAB754B}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Weclapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4514FE-F6D5-4884-BF40-EC1B8AEA98EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46925B39-12FF-428F-B49B-BC31C7A3286B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -446,18 +446,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,8 +456,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF43B183"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FD5B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="100">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -516,51 +516,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -626,17 +581,6 @@
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -649,17 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -714,19 +647,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,19 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -905,43 +812,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,111 +973,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,13 +990,261 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF43B183"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF43B183"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF43B183"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FF43B183"/>
       </right>
-      <top/>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
@@ -1239,7 +1252,123 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF43B183"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF43B183"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF43B183"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF43B183"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF43B183"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF43B183"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF43B183"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF43B183"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF43B183"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -1255,7 +1384,7 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF43B183"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1265,20 +1394,215 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FF43B183"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF43B183"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF43B183"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF43B183"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF43B183"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FF43B183"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF43B183"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF8FD5B7"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF8FD5B7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8FD5B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF8FD5B7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8FD5B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF8FD5B7"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF8FD5B7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8FD5B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF8FD5B7"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF8FD5B7"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF9DA600"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF8FD5B7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF8FD5B7"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF8FD5B7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF8FD5B7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF8FD5B7"/>
       </left>
       <right/>
       <top style="thin">
@@ -1292,7 +1616,7 @@
     <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
@@ -1303,63 +1627,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1370,45 +1646,36 @@
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FF8FD5B7"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FF8FD5B7"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF8FD5B7"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1419,9 +1686,11 @@
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FF8FD5B7"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF8FD5B7"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1429,85 +1698,23 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FF8FD5B7"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FF8FD5B7"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF8FD5B7"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </left>
       <right/>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1518,7 +1725,7 @@
       <left/>
       <right/>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1528,199 +1735,21 @@
     <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF8FD5B7"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1742,89 +1771,79 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1837,134 +1856,151 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3534,6 +3570,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8FD5B7"/>
+      <color rgb="FF43B183"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4140,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:JF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4197,46 +4239,46 @@
         <v>65</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="O4" s="113" t="s">
+      <c r="L4" s="132"/>
+      <c r="M4" s="133"/>
+      <c r="O4" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="S4" s="113" t="s">
+      <c r="P4" s="132"/>
+      <c r="Q4" s="133"/>
+      <c r="S4" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="W4" s="113" t="s">
+      <c r="T4" s="132"/>
+      <c r="U4" s="133"/>
+      <c r="W4" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="AA4" s="113" t="s">
+      <c r="X4" s="132"/>
+      <c r="Y4" s="133"/>
+      <c r="AA4" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="113"/>
-      <c r="AE4" s="114" t="s">
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="133"/>
+      <c r="AE4" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="116"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="136"/>
     </row>
     <row r="5" spans="1:266" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:266" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="69" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8"/>
@@ -4245,58 +4287,58 @@
       <c r="E6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AB6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AC6" s="84" t="s">
         <v>5</v>
       </c>
       <c r="AE6" s="103" t="s">
@@ -4310,85 +4352,85 @@
       </c>
     </row>
     <row r="7" spans="1:266" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="21"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="21"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="83"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="86"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="86"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="86"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="86"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="86"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="86"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="107"/>
     </row>
-    <row r="8" spans="1:266" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:266" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="19" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="G8" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-      <c r="O8" s="19" t="s">
+      <c r="K8" s="85"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="86"/>
+      <c r="O8" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="19" t="s">
+      <c r="R8" s="47"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="20" t="s">
+      <c r="X8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="Y8" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="34"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="73"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="88"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="109"/>
       <c r="AH8"/>
       <c r="AI8"/>
       <c r="AJ8"/>
@@ -4624,385 +4666,385 @@
       <c r="JF8"/>
     </row>
     <row r="9" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="G9" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="O9" s="19" t="s">
+      <c r="K9" s="85"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="86"/>
+      <c r="O9" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="21"/>
-      <c r="W9" s="19" t="s">
+      <c r="S9" s="85"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="86"/>
+      <c r="W9" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="X9" s="20" t="s">
+      <c r="X9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="Y9" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="34"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="73"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="88"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="109"/>
     </row>
     <row r="10" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="32" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="G10" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="O10" s="19" t="s">
+      <c r="K10" s="85"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="86"/>
+      <c r="O10" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="21"/>
-      <c r="W10" s="19" t="s">
+      <c r="S10" s="85"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="86"/>
+      <c r="W10" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="X10" s="20" t="s">
+      <c r="X10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Y10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="34"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="73"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="88"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="109"/>
     </row>
     <row r="11" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="32" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="O11" s="19" t="s">
+      <c r="K11" s="85"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="86"/>
+      <c r="O11" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="21"/>
-      <c r="W11" s="19" t="s">
+      <c r="S11" s="85"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="86"/>
+      <c r="W11" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="X11" s="20" t="s">
+      <c r="X11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="21" t="s">
+      <c r="Y11" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="73"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="88"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="109"/>
     </row>
     <row r="12" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="32" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="G12" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="O12" s="19" t="s">
+      <c r="K12" s="85"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="86"/>
+      <c r="O12" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="19"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="21"/>
-      <c r="W12" s="19" t="s">
+      <c r="S12" s="85"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="86"/>
+      <c r="W12" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="X12" s="20" t="s">
+      <c r="X12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="21" t="s">
+      <c r="Y12" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="34"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="73"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="88"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="109"/>
     </row>
     <row r="13" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="G13" s="32" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="G13" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="S13" s="19" t="s">
+      <c r="O13" s="85"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="86"/>
+      <c r="S13" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="21"/>
-      <c r="AA13" s="19" t="s">
+      <c r="W13" s="85"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="86"/>
+      <c r="AA13" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="AB13" s="33" t="s">
+      <c r="AB13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="21" t="s">
+      <c r="AC13" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="73"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="109"/>
     </row>
     <row r="14" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="G14" s="32" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="G14" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S14" s="32" t="s">
+      <c r="S14" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="T14" s="33" t="s">
+      <c r="T14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="U14" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W14" s="32" t="s">
+      <c r="W14" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="X14" s="33" t="s">
+      <c r="X14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Y14" s="21" t="s">
+      <c r="Y14" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA14" s="32" t="s">
+      <c r="AA14" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="AB14" s="33" t="s">
+      <c r="AB14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AC14" s="21" t="s">
+      <c r="AC14" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="73"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="109"/>
     </row>
-    <row r="15" spans="1:266" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:266" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="G15" s="32" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="G15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="R15" s="57"/>
-      <c r="S15" s="32" t="s">
+      <c r="R15" s="47"/>
+      <c r="S15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="33" t="s">
+      <c r="T15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="V15" s="57"/>
-      <c r="W15" s="32" t="s">
+      <c r="V15" s="47"/>
+      <c r="W15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="X15" s="33" t="s">
+      <c r="X15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="21" t="s">
+      <c r="Y15" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="32" t="s">
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="AB15" s="33" t="s">
+      <c r="AB15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AC15" s="21" t="s">
+      <c r="AC15" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="73"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="109"/>
       <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15"/>
@@ -5238,403 +5280,403 @@
       <c r="JF15"/>
     </row>
     <row r="16" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="G16" s="32" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="G16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="32" t="s">
+      <c r="S16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="21" t="s">
+      <c r="U16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W16" s="32" t="s">
+      <c r="W16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="X16" s="33" t="s">
+      <c r="X16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="21" t="s">
+      <c r="Y16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="AB16" s="33" t="s">
+      <c r="AB16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AC16" s="21" t="s">
+      <c r="AC16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="73"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="109"/>
     </row>
     <row r="17" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="32" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="G17" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="21" t="s">
+      <c r="U17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W17" s="32" t="s">
+      <c r="W17" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="X17" s="33" t="s">
+      <c r="X17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" s="21" t="s">
+      <c r="Y17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA17" s="32" t="s">
+      <c r="AA17" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="AB17" s="33" t="s">
+      <c r="AB17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AC17" s="21" t="s">
+      <c r="AC17" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="73"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="109"/>
     </row>
     <row r="18" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="G18" s="32" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="G18" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="21" t="s">
+      <c r="Q18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="32" t="s">
+      <c r="S18" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="T18" s="33" t="s">
+      <c r="T18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="21" t="s">
+      <c r="U18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="32" t="s">
+      <c r="W18" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="X18" s="33" t="s">
+      <c r="X18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Y18" s="21" t="s">
+      <c r="Y18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA18" s="32" t="s">
+      <c r="AA18" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="AB18" s="33" t="s">
+      <c r="AB18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AC18" s="21" t="s">
+      <c r="AC18" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="73"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="109"/>
     </row>
     <row r="19" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="G19" s="32" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="G19" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="O19" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S19" s="32" t="s">
+      <c r="S19" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="T19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="U19" s="21" t="s">
+      <c r="U19" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W19" s="32" t="s">
+      <c r="W19" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="X19" s="20" t="s">
+      <c r="X19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Y19" s="21" t="s">
+      <c r="Y19" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA19" s="32" t="s">
+      <c r="AA19" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="AB19" s="33" t="s">
+      <c r="AB19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="21" t="s">
+      <c r="AC19" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="73"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="109"/>
     </row>
     <row r="20" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="G20" s="32" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="G20" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="32" t="s">
+      <c r="S20" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="T20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U20" s="21" t="s">
+      <c r="U20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="32" t="s">
+      <c r="W20" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="X20" s="20" t="s">
+      <c r="X20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y20" s="21" t="s">
+      <c r="Y20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA20" s="32" t="s">
+      <c r="AA20" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="AB20" s="20" t="s">
+      <c r="AB20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AC20" s="21" t="s">
+      <c r="AC20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="73"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="109"/>
     </row>
-    <row r="21" spans="1:266" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:266" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="G21" s="32" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="G21" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="57"/>
-      <c r="S21" s="32" t="s">
+      <c r="R21" s="47"/>
+      <c r="S21" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="U21" s="21" t="s">
+      <c r="U21" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="V21" s="57"/>
-      <c r="W21" s="32" t="s">
+      <c r="V21" s="47"/>
+      <c r="W21" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="20" t="s">
+      <c r="X21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y21" s="21" t="s">
+      <c r="Y21" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="32" t="s">
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AB21" s="20" t="s">
+      <c r="AB21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC21" s="21" t="s">
+      <c r="AC21" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="73"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="109"/>
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
@@ -5870,1722 +5912,1723 @@
       <c r="JF21"/>
     </row>
     <row r="22" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="G22" s="32" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="G22" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="32" t="s">
+      <c r="O22" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S22" s="32" t="s">
+      <c r="S22" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W22" s="32" t="s">
+      <c r="W22" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="X22" s="20" t="s">
+      <c r="X22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="21" t="s">
+      <c r="Y22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA22" s="32" t="s">
+      <c r="AA22" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="AB22" s="20" t="s">
+      <c r="AB22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AC22" s="21" t="s">
+      <c r="AC22" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="73"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="109"/>
     </row>
     <row r="23" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="G23" s="19" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="G23" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q23" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="S23" s="19" t="s">
+      <c r="S23" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="20" t="s">
+      <c r="T23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="U23" s="21" t="s">
+      <c r="U23" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="W23" s="19" t="s">
+      <c r="W23" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="X23" s="20" t="s">
+      <c r="X23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Y23" s="21" t="s">
+      <c r="Y23" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AA23" s="19" t="s">
+      <c r="AA23" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="AB23" s="20" t="s">
+      <c r="AB23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AC23" s="21" t="s">
+      <c r="AC23" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="83"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="107"/>
     </row>
     <row r="24" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="G24" s="19" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="G24" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="21"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="21"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="21"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="83"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="86"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="86"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="86"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="86"/>
+      <c r="AA24" s="85"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="86"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="107"/>
     </row>
     <row r="25" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="K25" s="19" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="86"/>
+      <c r="K25" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q25" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="21"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="21"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="21"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="83"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="86"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="86"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="86"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="107"/>
     </row>
     <row r="26" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="K26" s="19" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="86"/>
+      <c r="K26" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="Q26" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="19" t="s">
+      <c r="S26" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="T26" s="20" t="s">
+      <c r="T26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="U26" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="W26" s="19" t="s">
+      <c r="W26" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="X26" s="20" t="s">
+      <c r="X26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Y26" s="21" t="s">
+      <c r="Y26" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="21"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="83"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="86"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="107"/>
     </row>
     <row r="27" spans="1:266" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="21"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="21"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="21"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="21"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="83"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="86"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="86"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="86"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="86"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="86"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="86"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="107"/>
     </row>
     <row r="28" spans="1:266" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="49"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="49"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="49"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="49"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="89"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="91"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="91"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="91"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="112"/>
     </row>
     <row r="29" spans="1:266" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="K29" s="50"/>
-      <c r="M29" s="51"/>
-      <c r="O29" s="50"/>
-      <c r="Q29" s="51"/>
-      <c r="S29" s="50"/>
-      <c r="U29" s="51"/>
-      <c r="W29" s="50"/>
-      <c r="Y29" s="51"/>
-      <c r="AA29" s="50"/>
-      <c r="AC29" s="51"/>
-      <c r="AE29" s="50"/>
-      <c r="AG29" s="51"/>
+      <c r="G29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="K29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="Q29" s="41"/>
+      <c r="S29" s="40"/>
+      <c r="U29" s="41"/>
+      <c r="W29" s="40"/>
+      <c r="Y29" s="41"/>
+      <c r="AA29" s="40"/>
+      <c r="AC29" s="41"/>
+      <c r="AE29" s="40"/>
+      <c r="AG29" s="41"/>
     </row>
     <row r="30" spans="1:266" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129"/>
-      <c r="G30" s="123" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="G30" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="124"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="123" t="s">
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="L30" s="124"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="120" t="s">
+      <c r="L30" s="129"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="120" t="s">
+      <c r="P30" s="123"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="T30" s="121"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="120" t="s">
+      <c r="T30" s="123"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="120" t="s">
+      <c r="X30" s="123"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="122"/>
-      <c r="AE30" s="117" t="s">
+      <c r="AB30" s="123"/>
+      <c r="AC30" s="124"/>
+      <c r="AE30" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="AF30" s="118"/>
-      <c r="AG30" s="119"/>
-      <c r="AH30" s="59"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="49"/>
     </row>
     <row r="31" spans="1:266" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="60" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="63" t="s">
+      <c r="L31" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="64" t="s">
+      <c r="M31" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="P31" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="84" t="s">
         <v>5</v>
       </c>
       <c r="R31"/>
-      <c r="S31" s="11" t="s">
+      <c r="S31" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="T31" s="12" t="s">
+      <c r="T31" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="84" t="s">
         <v>5</v>
       </c>
       <c r="V31"/>
-      <c r="W31" s="11" t="s">
+      <c r="W31" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="X31" s="12" t="s">
+      <c r="X31" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Y31" s="13" t="s">
+      <c r="Y31" s="84" t="s">
         <v>5</v>
       </c>
       <c r="Z31"/>
-      <c r="AA31" s="11" t="s">
+      <c r="AA31" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AB31" s="12" t="s">
+      <c r="AB31" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC31" s="13" t="s">
+      <c r="AC31" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AE31" s="65" t="s">
+      <c r="AE31" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AF31" s="66" t="s">
+      <c r="AF31" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AG31" s="67" t="s">
+      <c r="AG31" s="105" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:266" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="71" t="s">
+      <c r="C32" s="54"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="34"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="34"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="34"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="88"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="88"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="88"/>
       <c r="R32"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="34"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="88"/>
       <c r="V32"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="34"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="88"/>
       <c r="Z32"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="34"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="73"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="88"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="109"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="71"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="34"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="34"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="34"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="55"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="88"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="88"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="88"/>
       <c r="R33"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="34"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="88"/>
       <c r="V33"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="34"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="88"/>
       <c r="Z33"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="34"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="73"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="88"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="109"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="78"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="34"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="34"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="34"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="60"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="88"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="88"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="88"/>
       <c r="R34"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="34"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="88"/>
       <c r="V34"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="34"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="88"/>
       <c r="Z34"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="34"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="73"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="88"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="109"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="78"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="34"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="34"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="34"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="60"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="88"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="88"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="88"/>
       <c r="R35"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="34"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="88"/>
       <c r="V35"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="34"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="88"/>
       <c r="Z35"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="34"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="73"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="88"/>
+      <c r="AE35" s="108"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="109"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="78"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="34"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="34"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="34"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="60"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="88"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="88"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="88"/>
       <c r="R36"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="34"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="88"/>
       <c r="V36"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="34"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="88"/>
       <c r="Z36"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="34"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="73"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="88"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="109"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="78"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="34"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="34"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="34"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="60"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="88"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="88"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="88"/>
       <c r="R37"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="34"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="88"/>
       <c r="V37"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="34"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="88"/>
       <c r="Z37"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="34"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="33"/>
-      <c r="AG37" s="73"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="88"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="109"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="78"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="34"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="34"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="34"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="60"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="88"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="88"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="88"/>
       <c r="R38"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="34"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="88"/>
       <c r="V38"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="34"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="88"/>
       <c r="Z38"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="34"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="73"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="88"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="109"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="78"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="34"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="34"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="34"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="60"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="88"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="88"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="88"/>
       <c r="R39"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="34"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="88"/>
       <c r="V39"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="34"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="88"/>
       <c r="Z39"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="34"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="73"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="88"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="109"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="78"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="34"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="34"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="34"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="60"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="88"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="88"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="88"/>
       <c r="R40"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="34"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="88"/>
       <c r="V40"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="34"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="88"/>
       <c r="Z40"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="34"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="33"/>
-      <c r="AG40" s="73"/>
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="88"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="109"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="78"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="34"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="34"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="34"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="60"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="88"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="88"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="88"/>
       <c r="R41"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="34"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="88"/>
       <c r="V41"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="34"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="88"/>
       <c r="Z41"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="34"/>
-      <c r="AE41" s="72"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="73"/>
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="88"/>
+      <c r="AE41" s="108"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="109"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="81"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="21"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="21"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="63"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="86"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="86"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="86"/>
       <c r="R42"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="21"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="86"/>
       <c r="V42"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="21"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="86"/>
       <c r="Z42"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="21"/>
-      <c r="AE42" s="82"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="83"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="86"/>
+      <c r="AE42" s="106"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="107"/>
     </row>
     <row r="43" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="86"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="21"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="21"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="66"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="91"/>
       <c r="R43"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="21"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="91"/>
       <c r="V43"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="21"/>
+      <c r="W43" s="89"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="91"/>
       <c r="Z43"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="21"/>
-      <c r="AE43" s="87"/>
-      <c r="AF43" s="88"/>
-      <c r="AG43" s="89"/>
+      <c r="AA43" s="89"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="91"/>
+      <c r="AE43" s="110"/>
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="112"/>
     </row>
     <row r="44" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="130" t="s">
+      <c r="A44" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="132" t="s">
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="12" t="s">
+      <c r="L44" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="O44" s="90" t="s">
+      <c r="O44" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="91" t="s">
+      <c r="P44" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="92" t="s">
+      <c r="Q44" s="96" t="s">
         <v>5</v>
       </c>
       <c r="R44"/>
-      <c r="S44" s="90" t="s">
+      <c r="S44" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="91" t="s">
+      <c r="T44" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="92" t="s">
+      <c r="U44" s="96" t="s">
         <v>5</v>
       </c>
       <c r="V44"/>
-      <c r="W44" s="90" t="s">
+      <c r="W44" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="X44" s="91" t="s">
+      <c r="X44" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" s="92" t="s">
+      <c r="Y44" s="96" t="s">
         <v>5</v>
       </c>
       <c r="Z44"/>
-      <c r="AA44" s="90" t="s">
+      <c r="AA44" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="AB44" s="91" t="s">
+      <c r="AB44" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="AC44" s="92" t="s">
+      <c r="AC44" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="AE44" s="93" t="s">
+      <c r="AE44" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="AF44" s="94" t="s">
+      <c r="AF44" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="AG44" s="95" t="s">
+      <c r="AG44" s="115" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="71"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="34"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="34"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="97"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="55"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="88"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="88"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="67"/>
       <c r="Q45" s="98"/>
       <c r="R45"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="67"/>
       <c r="U45" s="98"/>
       <c r="V45"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="67"/>
       <c r="Y45" s="98"/>
       <c r="Z45"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="67"/>
       <c r="AC45" s="98"/>
-      <c r="AE45" s="99"/>
-      <c r="AF45" s="100"/>
-      <c r="AG45" s="101"/>
+      <c r="AE45" s="116"/>
+      <c r="AF45" s="117"/>
+      <c r="AG45" s="118"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="78"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="34"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="34"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="34"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="60"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="88"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="88"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="88"/>
       <c r="R46"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="34"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="88"/>
       <c r="V46"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="34"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="88"/>
       <c r="Z46"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="34"/>
-      <c r="AE46" s="72"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="73"/>
+      <c r="AA46" s="87"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="88"/>
+      <c r="AE46" s="108"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="109"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="78"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="34"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="34"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="60"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="88"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="88"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="88"/>
       <c r="R47"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="34"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="88"/>
       <c r="V47"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="34"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="88"/>
       <c r="Z47"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="34"/>
-      <c r="AE47" s="72"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="73"/>
+      <c r="AA47" s="87"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="88"/>
+      <c r="AE47" s="108"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="109"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="78"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="34"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="34"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="34"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="60"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="88"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="88"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="88"/>
       <c r="R48"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="34"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="88"/>
       <c r="V48"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="34"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="88"/>
       <c r="Z48"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="34"/>
-      <c r="AE48" s="72"/>
-      <c r="AF48" s="33"/>
-      <c r="AG48" s="73"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="88"/>
+      <c r="AE48" s="108"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="109"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="78"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="34"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="34"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="34"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="60"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="88"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="88"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="88"/>
       <c r="R49"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="34"/>
+      <c r="S49" s="87"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="88"/>
       <c r="V49"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="34"/>
+      <c r="W49" s="87"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="88"/>
       <c r="Z49"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="34"/>
-      <c r="AE49" s="72"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="73"/>
+      <c r="AA49" s="87"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="88"/>
+      <c r="AE49" s="108"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="109"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="78"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="34"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="34"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="34"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="60"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="88"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="88"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="88"/>
       <c r="R50"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="34"/>
+      <c r="S50" s="87"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="88"/>
       <c r="V50"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="34"/>
+      <c r="W50" s="87"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="88"/>
       <c r="Z50"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="34"/>
-      <c r="AE50" s="72"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="73"/>
+      <c r="AA50" s="87"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="88"/>
+      <c r="AE50" s="108"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="109"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="78"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="34"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="34"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="60"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="88"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="88"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="88"/>
       <c r="R51"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="34"/>
+      <c r="S51" s="87"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="88"/>
       <c r="V51"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="34"/>
+      <c r="W51" s="87"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="88"/>
       <c r="Z51"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="34"/>
-      <c r="AE51" s="72"/>
-      <c r="AF51" s="33"/>
-      <c r="AG51" s="73"/>
+      <c r="AA51" s="87"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="88"/>
+      <c r="AE51" s="108"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="109"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="78"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="34"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="34"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="34"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="60"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="88"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="88"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="88"/>
       <c r="R52"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="34"/>
+      <c r="S52" s="87"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="88"/>
       <c r="V52"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="34"/>
+      <c r="W52" s="87"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="88"/>
       <c r="Z52"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="34"/>
-      <c r="AE52" s="72"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="73"/>
+      <c r="AA52" s="87"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="88"/>
+      <c r="AE52" s="108"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="109"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="78"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="34"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="34"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="34"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="60"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="88"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="88"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="88"/>
       <c r="R53"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="34"/>
+      <c r="S53" s="87"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="88"/>
       <c r="V53"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="34"/>
+      <c r="W53" s="87"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="88"/>
       <c r="Z53"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="34"/>
-      <c r="AE53" s="72"/>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="73"/>
+      <c r="AA53" s="87"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="88"/>
+      <c r="AE53" s="108"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="109"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="81"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="21"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="21"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="63"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="86"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="86"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="86"/>
       <c r="R54"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="21"/>
+      <c r="S54" s="85"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="86"/>
       <c r="V54"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="21"/>
+      <c r="W54" s="85"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="86"/>
       <c r="Z54"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="21"/>
-      <c r="AE54" s="82"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="83"/>
+      <c r="AA54" s="85"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="86"/>
+      <c r="AE54" s="106"/>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="107"/>
     </row>
     <row r="55" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="86"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="49"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="49"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="66"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="91"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="91"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="91"/>
       <c r="R55"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="49"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="91"/>
       <c r="V55"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="49"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="91"/>
       <c r="Z55"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="48"/>
-      <c r="AC55" s="49"/>
-      <c r="AE55" s="87"/>
-      <c r="AF55" s="88"/>
-      <c r="AG55" s="89"/>
+      <c r="AA55" s="89"/>
+      <c r="AB55" s="90"/>
+      <c r="AC55" s="91"/>
+      <c r="AE55" s="110"/>
+      <c r="AF55" s="111"/>
+      <c r="AG55" s="112"/>
     </row>
     <row r="56" spans="1:33" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="50"/>
-      <c r="I56" s="51"/>
-      <c r="K56" s="50"/>
-      <c r="M56" s="51"/>
-      <c r="O56" s="50"/>
-      <c r="Q56" s="51"/>
+      <c r="G56" s="40"/>
+      <c r="I56" s="41"/>
+      <c r="K56" s="40"/>
+      <c r="M56" s="41"/>
+      <c r="O56" s="40"/>
+      <c r="Q56" s="41"/>
       <c r="R56"/>
-      <c r="S56" s="50"/>
-      <c r="U56" s="51"/>
+      <c r="S56" s="40"/>
+      <c r="U56" s="41"/>
       <c r="V56"/>
-      <c r="W56" s="50"/>
-      <c r="Y56" s="51"/>
+      <c r="W56" s="40"/>
+      <c r="Y56" s="41"/>
       <c r="Z56"/>
     </row>
     <row r="57" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="137" t="s">
+      <c r="A57" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="139" t="s">
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="12" t="s">
+      <c r="L57" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="13" t="s">
+      <c r="M57" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="12" t="s">
+      <c r="P57" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="13" t="s">
+      <c r="Q57" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="11" t="s">
+      <c r="S57" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="T57" s="12" t="s">
+      <c r="T57" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="U57" s="13" t="s">
+      <c r="U57" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="W57" s="11" t="s">
+      <c r="W57" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="X57" s="12" t="s">
+      <c r="X57" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Y57" s="13" t="s">
+      <c r="Y57" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AA57" s="11" t="s">
+      <c r="AA57" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AB57" s="12" t="s">
+      <c r="AB57" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="AC57" s="13" t="s">
+      <c r="AC57" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="AE57" s="103" t="s">
+      <c r="AD57" s="102"/>
+      <c r="AE57" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="AF57" s="104" t="s">
+      <c r="AF57" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="AG57" s="105" t="s">
+      <c r="AG57" s="115" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="133" t="s">
+      <c r="A58" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="134" t="s">
+      <c r="B58" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="135"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="52"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="34"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="34"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="34"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="34"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="34"/>
-      <c r="AA58" s="32"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="34"/>
-      <c r="AE58" s="72"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="73"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="42"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="88"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="88"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="88"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="88"/>
+      <c r="W58" s="87"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="88"/>
+      <c r="AA58" s="97"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="98"/>
+      <c r="AE58" s="116"/>
+      <c r="AF58" s="117"/>
+      <c r="AG58" s="118"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="108"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="54"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="34"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="34"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="34"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="34"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="34"/>
-      <c r="AA59" s="32"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="34"/>
-      <c r="AE59" s="72"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="73"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="44"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="88"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="88"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="88"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="88"/>
+      <c r="W59" s="87"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="88"/>
+      <c r="AA59" s="87"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="88"/>
+      <c r="AE59" s="108"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="109"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="108"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="54"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="34"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="34"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="34"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="34"/>
-      <c r="W60" s="32"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="34"/>
-      <c r="AA60" s="32"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="34"/>
-      <c r="AE60" s="72"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="73"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="44"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="88"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="88"/>
+      <c r="O60" s="87"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="88"/>
+      <c r="S60" s="87"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="88"/>
+      <c r="W60" s="87"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="88"/>
+      <c r="AA60" s="87"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="88"/>
+      <c r="AE60" s="108"/>
+      <c r="AF60" s="27"/>
+      <c r="AG60" s="109"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="108"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="54"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="34"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="34"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="34"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="34"/>
-      <c r="W61" s="32"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="34"/>
-      <c r="AA61" s="32"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="34"/>
-      <c r="AE61" s="72"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="73"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="44"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="88"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="88"/>
+      <c r="O61" s="87"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="88"/>
+      <c r="S61" s="87"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="88"/>
+      <c r="W61" s="87"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="88"/>
+      <c r="AA61" s="87"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="88"/>
+      <c r="AE61" s="108"/>
+      <c r="AF61" s="27"/>
+      <c r="AG61" s="109"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="54"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="34"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="34"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="34"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="34"/>
-      <c r="W62" s="32"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="34"/>
-      <c r="AA62" s="32"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="34"/>
-      <c r="AE62" s="72"/>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="73"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="44"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="88"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="88"/>
+      <c r="O62" s="87"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="88"/>
+      <c r="S62" s="87"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="88"/>
+      <c r="W62" s="87"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="88"/>
+      <c r="AA62" s="87"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="88"/>
+      <c r="AE62" s="108"/>
+      <c r="AF62" s="27"/>
+      <c r="AG62" s="109"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="54"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="34"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="34"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="34"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="34"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="34"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="34"/>
-      <c r="AE63" s="72"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="73"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="44"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="88"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="88"/>
+      <c r="O63" s="87"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="88"/>
+      <c r="S63" s="87"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="88"/>
+      <c r="W63" s="87"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="88"/>
+      <c r="AA63" s="87"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="88"/>
+      <c r="AE63" s="108"/>
+      <c r="AF63" s="27"/>
+      <c r="AG63" s="109"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="54"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="34"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="34"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="34"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="34"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="34"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="34"/>
-      <c r="AE64" s="72"/>
-      <c r="AF64" s="33"/>
-      <c r="AG64" s="73"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="44"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="88"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="88"/>
+      <c r="O64" s="87"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="88"/>
+      <c r="S64" s="87"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="88"/>
+      <c r="W64" s="87"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="88"/>
+      <c r="AA64" s="87"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="88"/>
+      <c r="AE64" s="108"/>
+      <c r="AF64" s="27"/>
+      <c r="AG64" s="109"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="54"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="34"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="34"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="34"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="34"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="34"/>
-      <c r="AA65" s="32"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="34"/>
-      <c r="AE65" s="72"/>
-      <c r="AF65" s="33"/>
-      <c r="AG65" s="73"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="44"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="88"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="88"/>
+      <c r="O65" s="87"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="88"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="88"/>
+      <c r="W65" s="87"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="88"/>
+      <c r="AA65" s="87"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="88"/>
+      <c r="AE65" s="108"/>
+      <c r="AF65" s="27"/>
+      <c r="AG65" s="109"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="54"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="34"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="34"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="34"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="34"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="34"/>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="34"/>
-      <c r="AE66" s="72"/>
-      <c r="AF66" s="33"/>
-      <c r="AG66" s="73"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="44"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="88"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="88"/>
+      <c r="O66" s="87"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="88"/>
+      <c r="S66" s="87"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="88"/>
+      <c r="W66" s="87"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="88"/>
+      <c r="AA66" s="87"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="88"/>
+      <c r="AE66" s="108"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="109"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="54"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="34"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="34"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="34"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="33"/>
-      <c r="U67" s="34"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="34"/>
-      <c r="AA67" s="32"/>
-      <c r="AB67" s="33"/>
-      <c r="AC67" s="34"/>
-      <c r="AE67" s="72"/>
-      <c r="AF67" s="33"/>
-      <c r="AG67" s="73"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="127"/>
+      <c r="E67" s="44"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="88"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="88"/>
+      <c r="O67" s="87"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="88"/>
+      <c r="S67" s="87"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="88"/>
+      <c r="W67" s="87"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="88"/>
+      <c r="AA67" s="87"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="88"/>
+      <c r="AE67" s="108"/>
+      <c r="AF67" s="27"/>
+      <c r="AG67" s="109"/>
     </row>
     <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="55"/>
-      <c r="B68" s="110"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="56"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="49"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="49"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="49"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="49"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="48"/>
-      <c r="Y68" s="49"/>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="49"/>
-      <c r="AE68" s="87"/>
-      <c r="AF68" s="88"/>
-      <c r="AG68" s="89"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="46"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="91"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="91"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="90"/>
+      <c r="Q68" s="91"/>
+      <c r="S68" s="89"/>
+      <c r="T68" s="90"/>
+      <c r="U68" s="91"/>
+      <c r="W68" s="89"/>
+      <c r="X68" s="90"/>
+      <c r="Y68" s="91"/>
+      <c r="AA68" s="89"/>
+      <c r="AB68" s="90"/>
+      <c r="AC68" s="91"/>
+      <c r="AE68" s="110"/>
+      <c r="AF68" s="111"/>
+      <c r="AG68" s="112"/>
     </row>
     <row r="69" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7597,21 +7640,6 @@
     <protectedRange sqref="N32:N43 J32:J43 R32:R43 A32:F43 A45:U55 W45:Y55 AA45:AC55" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="25">
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
@@ -7622,6 +7650,21 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B64:D64"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="W30:Y30"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:Q29 Z8:Z29 B27:Q27 B8:N26 O7:Q7 O13:Q26 P8:Q12 AD9:AO14 AD16:AO20 AD15:AG15 AD23:AO29 AD21:AG22 AD8:AG8">
     <cfRule type="expression" dxfId="141" priority="159">
@@ -8191,15 +8234,12 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D28 C45:D55 C32:D43" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG58:AG68 U7:U28 I58:I68 Q58:Q68 AC58:AC68 I7:I28 AC32:AC43 M58:M68 M7:M28 AC7:AC28 Y7:Y28 U58:U68 Y58:Y68 Q7:Q28 Q32:Q43 M32:M43 I32:I43 AG45:AG55 AG32:AG43 U32:U43 Y32:Y43 AG7:AG28" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q45:Q55 I45:I55 M45:M55 U45:U55 Y45:Y55 AC45:AC55" xr:uid="{324C884A-4163-4070-B3A3-8C6CCEB8E9EC}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 AC7:AC28 AG7:AG28 AG32:AG43 AC32:AC43 Y32:Y43 U32:U43 Q32:Q43 M32:M43 I32:I43 I45:I55 M45:M55 Q45:Q55 U45:U55 Y45:Y55 AC45:AC55 AG45:AG55 AG58:AG68 AC58:AC68 Y58:Y68 U58:U68 Q58:Q67 Q68 M58:M68 I58:I68" xr:uid="{413233B0-BAA4-40B0-83B8-C7DFB9326460}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46925B39-12FF-428F-B49B-BC31C7A3286B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF7D490-7AB5-4BE3-8858-33585CE7EF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     </r>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>salutation</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>weclapp: Lieferant</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -1929,24 +1929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1956,14 +1938,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1983,23 +1974,32 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4182,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:JF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="2" spans="1:266" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:266" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4233,55 +4233,57 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="131" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="133"/>
+      <c r="G4" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="129"/>
+      <c r="M4" s="130"/>
+      <c r="O4" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="132"/>
-      <c r="M4" s="133"/>
-      <c r="O4" s="131" t="s">
+      <c r="P4" s="129"/>
+      <c r="Q4" s="130"/>
+      <c r="S4" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="133"/>
-      <c r="S4" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" s="132"/>
-      <c r="U4" s="133"/>
-      <c r="W4" s="131" t="s">
+      <c r="T4" s="129"/>
+      <c r="U4" s="130"/>
+      <c r="W4" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="130"/>
+      <c r="AA4" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="133"/>
-      <c r="AA4" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="133"/>
-      <c r="AE4" s="134" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="136"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="130"/>
+      <c r="AE4" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="133"/>
     </row>
     <row r="5" spans="1:266" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:266" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -4381,34 +4383,32 @@
     </row>
     <row r="8" spans="1:266" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
       <c r="G8" s="85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="85"/>
       <c r="L8" s="16"/>
       <c r="M8" s="86"/>
       <c r="O8" s="85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R8" s="47"/>
       <c r="S8" s="85"/>
@@ -4416,13 +4416,13 @@
       <c r="U8" s="86"/>
       <c r="V8" s="47"/>
       <c r="W8" s="85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="47"/>
       <c r="AA8" s="87"/>
@@ -4674,37 +4674,37 @@
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
       <c r="G9" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="85"/>
       <c r="L9" s="16"/>
       <c r="M9" s="86"/>
       <c r="O9" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S9" s="85"/>
       <c r="T9" s="16"/>
       <c r="U9" s="86"/>
       <c r="W9" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA9" s="87"/>
       <c r="AB9" s="27"/>
@@ -4722,37 +4722,37 @@
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
       <c r="G10" s="87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="85"/>
       <c r="L10" s="16"/>
       <c r="M10" s="86"/>
       <c r="O10" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S10" s="85"/>
       <c r="T10" s="16"/>
       <c r="U10" s="86"/>
       <c r="W10" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA10" s="87"/>
       <c r="AB10" s="27"/>
@@ -4763,44 +4763,44 @@
     </row>
     <row r="11" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="G11" s="87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="85"/>
       <c r="L11" s="16"/>
       <c r="M11" s="86"/>
       <c r="O11" s="85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S11" s="85"/>
       <c r="T11" s="16"/>
       <c r="U11" s="86"/>
       <c r="W11" s="85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA11" s="87"/>
       <c r="AB11" s="27"/>
@@ -4811,44 +4811,44 @@
     </row>
     <row r="12" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="G12" s="87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="85"/>
       <c r="L12" s="16"/>
       <c r="M12" s="86"/>
       <c r="O12" s="85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S12" s="85"/>
       <c r="T12" s="16"/>
       <c r="U12" s="86"/>
       <c r="W12" s="85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y12" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="87"/>
       <c r="AB12" s="27"/>
@@ -4859,53 +4859,53 @@
     </row>
     <row r="13" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
       <c r="G13" s="87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" s="85"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="86"/>
       <c r="S13" s="85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W13" s="85"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="86"/>
       <c r="AA13" s="85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB13" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC13" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE13" s="108"/>
       <c r="AF13" s="27"/>
@@ -4913,65 +4913,65 @@
     </row>
     <row r="14" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="G14" s="87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" s="87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P14" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S14" s="87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W14" s="87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X14" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y14" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA14" s="87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC14" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE14" s="108"/>
       <c r="AF14" s="27"/>
@@ -4979,68 +4979,68 @@
     </row>
     <row r="15" spans="1:266" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
       <c r="G15" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P15" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R15" s="47"/>
       <c r="S15" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V15" s="47"/>
       <c r="W15" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y15" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z15" s="47"/>
       <c r="AA15" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB15" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC15" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE15" s="108"/>
       <c r="AF15" s="27"/>
@@ -5281,65 +5281,65 @@
     </row>
     <row r="16" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="G16" s="87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" s="87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P16" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S16" s="87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U16" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W16" s="87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X16" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA16" s="87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC16" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE16" s="108"/>
       <c r="AF16" s="27"/>
@@ -5347,65 +5347,65 @@
     </row>
     <row r="17" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="G17" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S17" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W17" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y17" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA17" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC17" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE17" s="108"/>
       <c r="AF17" s="27"/>
@@ -5413,65 +5413,65 @@
     </row>
     <row r="18" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="G18" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S18" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U18" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W18" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y18" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA18" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC18" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE18" s="108"/>
       <c r="AF18" s="27"/>
@@ -5479,65 +5479,65 @@
     </row>
     <row r="19" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26"/>
       <c r="G19" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S19" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U19" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W19" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y19" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA19" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC19" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE19" s="108"/>
       <c r="AF19" s="27"/>
@@ -5545,65 +5545,65 @@
     </row>
     <row r="20" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="G20" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S20" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U20" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W20" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y20" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA20" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC20" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" s="108"/>
       <c r="AF20" s="27"/>
@@ -5621,58 +5621,58 @@
         <v>8</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="87" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" s="87" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R21" s="47"/>
       <c r="S21" s="87" t="s">
         <v>8</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U21" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V21" s="47"/>
       <c r="W21" s="87" t="s">
         <v>8</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y21" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z21" s="47"/>
       <c r="AA21" s="87" t="s">
         <v>8</v>
       </c>
       <c r="AB21" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC21" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE21" s="108"/>
       <c r="AF21" s="27"/>
@@ -5920,58 +5920,58 @@
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="G22" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S22" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U22" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W22" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA22" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC22" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE22" s="108"/>
       <c r="AF22" s="27"/>
@@ -5989,55 +5989,55 @@
         <v>10</v>
       </c>
       <c r="H23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="86" t="s">
         <v>17</v>
-      </c>
-      <c r="I23" s="86" t="s">
-        <v>18</v>
       </c>
       <c r="K23" s="85" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="86" t="s">
         <v>17</v>
-      </c>
-      <c r="M23" s="86" t="s">
-        <v>18</v>
       </c>
       <c r="O23" s="85" t="s">
         <v>10</v>
       </c>
       <c r="P23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="86" t="s">
         <v>17</v>
-      </c>
-      <c r="Q23" s="86" t="s">
-        <v>18</v>
       </c>
       <c r="S23" s="85" t="s">
         <v>10</v>
       </c>
       <c r="T23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U23" s="86" t="s">
         <v>17</v>
-      </c>
-      <c r="U23" s="86" t="s">
-        <v>18</v>
       </c>
       <c r="W23" s="85" t="s">
         <v>10</v>
       </c>
       <c r="X23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y23" s="86" t="s">
         <v>17</v>
-      </c>
-      <c r="Y23" s="86" t="s">
-        <v>18</v>
       </c>
       <c r="AA23" s="85" t="s">
         <v>10</v>
       </c>
       <c r="AB23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC23" s="86" t="s">
         <v>17</v>
-      </c>
-      <c r="AC23" s="86" t="s">
-        <v>18</v>
       </c>
       <c r="AE23" s="106"/>
       <c r="AF23" s="16"/>
@@ -6045,20 +6045,20 @@
     </row>
     <row r="24" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="G24" s="85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="85"/>
       <c r="L24" s="16"/>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="25" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="32"/>
@@ -6091,22 +6091,22 @@
       <c r="H25" s="16"/>
       <c r="I25" s="86"/>
       <c r="K25" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O25" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S25" s="85"/>
       <c r="T25" s="16"/>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="26" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="32"/>
@@ -6133,40 +6133,40 @@
       <c r="H26" s="16"/>
       <c r="I26" s="86"/>
       <c r="K26" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S26" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U26" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W26" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y26" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA26" s="85"/>
       <c r="AB26" s="16"/>
@@ -6249,60 +6249,60 @@
     </row>
     <row r="30" spans="1:266" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="73"/>
-      <c r="G30" s="128" t="s">
+      <c r="G30" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="141"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="128" t="s">
+      <c r="L30" s="141"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="L30" s="129"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="122" t="s">
+      <c r="P30" s="138"/>
+      <c r="Q30" s="139"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="T30" s="123"/>
-      <c r="U30" s="124"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="139"/>
       <c r="V30" s="49"/>
-      <c r="W30" s="122" t="s">
+      <c r="W30" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="X30" s="138"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="124"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="122" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB30" s="123"/>
-      <c r="AC30" s="124"/>
-      <c r="AE30" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="121"/>
+      <c r="AB30" s="138"/>
+      <c r="AC30" s="139"/>
+      <c r="AE30" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
       <c r="AH30" s="49"/>
     </row>
     <row r="31" spans="1:266" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="50" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -6378,15 +6378,15 @@
     </row>
     <row r="32" spans="1:266" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="53" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>70</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="53"/>
       <c r="E32" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="85"/>
       <c r="H32" s="16"/>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="56"/>
       <c r="C33" s="57"/>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="58"/>
       <c r="C34" s="59"/>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="58"/>
       <c r="C35" s="59"/>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="58"/>
       <c r="C36" s="59"/>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="58"/>
       <c r="C37" s="59"/>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="58"/>
       <c r="C38" s="59"/>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="58"/>
       <c r="C39" s="59"/>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="58"/>
       <c r="C40" s="59"/>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="58"/>
       <c r="C41" s="59"/>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="61"/>
       <c r="C42" s="62"/>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="44" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="75"/>
       <c r="D44" s="75"/>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="45" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="56"/>
       <c r="C45" s="57"/>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="58"/>
       <c r="C46" s="59"/>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="58"/>
       <c r="C47" s="59"/>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="58"/>
       <c r="C48" s="59"/>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="58"/>
       <c r="C49" s="59"/>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="58"/>
       <c r="C50" s="59"/>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="58"/>
       <c r="C51" s="59"/>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52" s="58"/>
       <c r="C52" s="59"/>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="58"/>
       <c r="C53" s="59"/>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="61"/>
       <c r="C54" s="62"/>
@@ -7308,13 +7308,13 @@
     </row>
     <row r="58" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="140" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="141"/>
-      <c r="D58" s="142"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="126"/>
+      <c r="D58" s="127"/>
       <c r="E58" s="42"/>
       <c r="G58" s="87"/>
       <c r="H58" s="27"/>
@@ -7340,13 +7340,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="126"/>
-      <c r="D59" s="127"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="120"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="44"/>
       <c r="G59" s="87"/>
       <c r="H59" s="27"/>
@@ -7372,13 +7372,13 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="125" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="126"/>
-      <c r="D60" s="127"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="44"/>
       <c r="G60" s="87"/>
       <c r="H60" s="27"/>
@@ -7404,13 +7404,13 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="126"/>
-      <c r="D61" s="127"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="120"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="44"/>
       <c r="G61" s="87"/>
       <c r="H61" s="27"/>
@@ -7436,9 +7436,9 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="127"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="44"/>
       <c r="G62" s="87"/>
       <c r="H62" s="27"/>
@@ -7464,9 +7464,9 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
-      <c r="B63" s="125"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="127"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="44"/>
       <c r="G63" s="87"/>
       <c r="H63" s="27"/>
@@ -7492,9 +7492,9 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="126"/>
-      <c r="D64" s="127"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="44"/>
       <c r="G64" s="87"/>
       <c r="H64" s="27"/>
@@ -7520,9 +7520,9 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
-      <c r="B65" s="125"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="127"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="121"/>
       <c r="E65" s="44"/>
       <c r="G65" s="87"/>
       <c r="H65" s="27"/>
@@ -7548,9 +7548,9 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="126"/>
-      <c r="D66" s="127"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="121"/>
       <c r="E66" s="44"/>
       <c r="G66" s="87"/>
       <c r="H66" s="27"/>
@@ -7576,9 +7576,9 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="126"/>
-      <c r="D67" s="127"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="121"/>
       <c r="E67" s="44"/>
       <c r="G67" s="87"/>
       <c r="H67" s="27"/>
@@ -7604,9 +7604,9 @@
     </row>
     <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="139"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="124"/>
       <c r="E68" s="46"/>
       <c r="G68" s="89"/>
       <c r="H68" s="90"/>
@@ -7640,6 +7640,21 @@
     <protectedRange sqref="N32:N43 J32:J43 R32:R43 A32:F43 A45:U55 W45:Y55 AA45:AC55" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="25">
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AA30:AC30"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
@@ -7650,21 +7665,6 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AA30:AC30"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="W30:Y30"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:Q29 Z8:Z29 B27:Q27 B8:N26 O7:Q7 O13:Q26 P8:Q12 AD9:AO14 AD16:AO20 AD15:AG15 AD23:AO29 AD21:AG22 AD8:AG8">
     <cfRule type="expression" dxfId="141" priority="159">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755A4DF-5A56-44B7-A3FA-2015ABB852B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25456A2F-234E-42AD-835C-6992FEAC6486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18255" windowHeight="5385" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1652,6 +1652,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1660,6 +1678,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1679,56 +1724,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2893,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2950,42 +2994,42 @@
         <v>64</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
-      <c r="O4" s="91" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
+      <c r="O4" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="93"/>
-      <c r="S4" s="91" t="s">
+      <c r="P4" s="95"/>
+      <c r="Q4" s="96"/>
+      <c r="S4" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="92"/>
-      <c r="U4" s="93"/>
-      <c r="W4" s="91" t="s">
+      <c r="T4" s="95"/>
+      <c r="U4" s="96"/>
+      <c r="W4" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="93"/>
-      <c r="AA4" s="91" t="s">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="96"/>
+      <c r="AA4" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AE4" s="94" t="s">
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AE4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="96"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="99"/>
     </row>
     <row r="5" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4399,41 +4443,41 @@
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
       <c r="E33" s="41"/>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
-      <c r="K33" s="103" t="s">
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="K33" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="104"/>
-      <c r="M33" s="105"/>
-      <c r="O33" s="100" t="s">
+      <c r="L33" s="92"/>
+      <c r="M33" s="93"/>
+      <c r="O33" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="102"/>
-      <c r="S33" s="100" t="s">
+      <c r="P33" s="86"/>
+      <c r="Q33" s="87"/>
+      <c r="S33" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="T33" s="101"/>
-      <c r="U33" s="102"/>
-      <c r="W33" s="100" t="s">
+      <c r="T33" s="86"/>
+      <c r="U33" s="87"/>
+      <c r="W33" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="102"/>
-      <c r="AA33" s="100" t="s">
+      <c r="X33" s="86"/>
+      <c r="Y33" s="87"/>
+      <c r="AA33" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="102"/>
-      <c r="AE33" s="97" t="s">
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="87"/>
+      <c r="AE33" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="99"/>
+      <c r="AF33" s="83"/>
+      <c r="AG33" s="84"/>
     </row>
     <row r="34" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
@@ -5369,11 +5413,11 @@
       <c r="A61" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="88" t="s">
+      <c r="B61" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="105"/>
       <c r="E61" s="26"/>
       <c r="G61" s="54"/>
       <c r="H61" s="18"/>
@@ -5401,11 +5445,11 @@
       <c r="A62" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="84"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="28"/>
       <c r="G62" s="54"/>
       <c r="H62" s="18"/>
@@ -5433,11 +5477,11 @@
       <c r="A63" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="84"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="28"/>
       <c r="G63" s="54"/>
       <c r="H63" s="18"/>
@@ -5465,11 +5509,11 @@
       <c r="A64" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="84"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="90"/>
       <c r="E64" s="28"/>
       <c r="G64" s="54"/>
       <c r="H64" s="18"/>
@@ -5497,11 +5541,11 @@
       <c r="A65" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="84"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="28"/>
       <c r="G65" s="54"/>
       <c r="H65" s="18"/>
@@ -5527,9 +5571,9 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="84"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="28"/>
       <c r="G66" s="54"/>
       <c r="H66" s="18"/>
@@ -5555,9 +5599,9 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="84"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="28"/>
       <c r="G67" s="54"/>
       <c r="H67" s="18"/>
@@ -5583,9 +5627,9 @@
     </row>
     <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="87"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="102"/>
       <c r="E68" s="30"/>
       <c r="G68" s="55"/>
       <c r="H68" s="56"/>
@@ -5613,12 +5657,26 @@
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A7:E31 G7:I31 K7:M31 O7:Q31 S7:U31 AE7:AF31 AA7:AC31 W7:Y31" name="Contact Fields"/>
-    <protectedRange sqref="A67:E68 G67:I68 K67:M68 O67:Q68 S67:U68 AE67:AG68 AA67:AC68 W67:Y68 W61:Y66 AA61:AC66 AE61:AG66 S61:U66 O61:Q66 K61:M66 G61:I66 A61:E66" name="Questionnaire"/>
+    <protectedRange sqref="W61:Y68 AA61:AC68 AE61:AG68 S61:U68 O61:Q68 K61:M68 G61:I68 A61:E68" name="Questionnaire"/>
     <protectedRange sqref="A1" name="Titel"/>
     <protectedRange sqref="AE47:AG47 AE33:AG34" name="customEntities_2"/>
     <protectedRange sqref="A35:E46 A48:E58 W48:Y58 AA48:AC58 G48:I58 K48:M58 O48:Q58 S48:U58" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="22">
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="AE33:AG33"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="B66:D66"/>
@@ -5627,218 +5685,204 @@
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <conditionalFormatting sqref="A31:E32 AE10:AG32 B7:E30 G7:I32 K31:M32 O31:Q32 G61:I67 K61:M67 O61:Q67 S61:U67 W61:Y67 AA61:AC67">
-    <cfRule type="expression" dxfId="49" priority="165">
+    <cfRule type="expression" dxfId="53" priority="165">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="166">
+    <cfRule type="expression" dxfId="52" priority="166">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE61:AG68">
-    <cfRule type="expression" dxfId="47" priority="163">
+    <cfRule type="expression" dxfId="51" priority="163">
       <formula>$C61="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="164">
+    <cfRule type="expression" dxfId="50" priority="164">
       <formula>$D61="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:M68">
-    <cfRule type="expression" dxfId="45" priority="157">
+    <cfRule type="expression" dxfId="49" priority="157">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="158">
+    <cfRule type="expression" dxfId="48" priority="158">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O68:Q68">
-    <cfRule type="expression" dxfId="43" priority="159">
+    <cfRule type="expression" dxfId="47" priority="159">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="160">
+    <cfRule type="expression" dxfId="46" priority="160">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA68:AC68">
-    <cfRule type="expression" dxfId="41" priority="145">
+    <cfRule type="expression" dxfId="45" priority="145">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="146">
+    <cfRule type="expression" dxfId="44" priority="146">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:I68">
-    <cfRule type="expression" dxfId="39" priority="155">
+    <cfRule type="expression" dxfId="43" priority="155">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="156">
+    <cfRule type="expression" dxfId="42" priority="156">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A30">
-    <cfRule type="expression" dxfId="37" priority="153">
+    <cfRule type="expression" dxfId="41" priority="153">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="154">
+    <cfRule type="expression" dxfId="40" priority="154">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA31:AC32">
-    <cfRule type="expression" dxfId="35" priority="147">
+    <cfRule type="expression" dxfId="39" priority="147">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="148">
+    <cfRule type="expression" dxfId="38" priority="148">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:U68">
-    <cfRule type="expression" dxfId="33" priority="139">
+    <cfRule type="expression" dxfId="37" priority="139">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="140">
+    <cfRule type="expression" dxfId="36" priority="140">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W68:Y68">
-    <cfRule type="expression" dxfId="31" priority="133">
+    <cfRule type="expression" dxfId="35" priority="133">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="134">
+    <cfRule type="expression" dxfId="34" priority="134">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:U32">
-    <cfRule type="expression" dxfId="29" priority="141">
+    <cfRule type="expression" dxfId="33" priority="141">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="142">
+    <cfRule type="expression" dxfId="32" priority="142">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y32">
-    <cfRule type="expression" dxfId="27" priority="135">
+    <cfRule type="expression" dxfId="31" priority="135">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="136">
+    <cfRule type="expression" dxfId="30" priority="136">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:E59 G59:I59 K59:M59 O59:Q59 S59:U59 AE59 AA59:AC59 W59:Y59">
-    <cfRule type="expression" dxfId="25" priority="91">
+    <cfRule type="expression" dxfId="29" priority="91">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="92">
+    <cfRule type="expression" dxfId="28" priority="92">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:E34 A46:E47 A58:E58 G58:I58 G47:I47 G34:I34 K34:M34 K47:M47 K58:M58 O58:Q58 O47:Q47 O34:Q34">
-    <cfRule type="expression" dxfId="23" priority="89">
+    <cfRule type="expression" dxfId="27" priority="89">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="90">
+    <cfRule type="expression" dxfId="26" priority="90">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE33:AG34 AE47:AG47">
-    <cfRule type="expression" dxfId="21" priority="53">
+    <cfRule type="expression" dxfId="25" priority="53">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="54">
+    <cfRule type="expression" dxfId="24" priority="54">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE35:AG45">
-    <cfRule type="expression" dxfId="19" priority="51">
+    <cfRule type="expression" dxfId="23" priority="51">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="52">
+    <cfRule type="expression" dxfId="22" priority="52">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE48:AG57">
-    <cfRule type="expression" dxfId="17" priority="49">
+    <cfRule type="expression" dxfId="21" priority="49">
       <formula>$C48="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="50">
+    <cfRule type="expression" dxfId="20" priority="50">
       <formula>$D48="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE58:AG58">
-    <cfRule type="expression" dxfId="15" priority="47">
+    <cfRule type="expression" dxfId="19" priority="47">
       <formula>$C58="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="48">
+    <cfRule type="expression" dxfId="18" priority="48">
       <formula>$D58="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE46:AG46">
-    <cfRule type="expression" dxfId="13" priority="45">
+    <cfRule type="expression" dxfId="17" priority="45">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="46">
+    <cfRule type="expression" dxfId="16" priority="46">
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:U34 S47:U47 S58:U58">
-    <cfRule type="expression" dxfId="11" priority="43">
+    <cfRule type="expression" dxfId="15" priority="43">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="44">
+    <cfRule type="expression" dxfId="14" priority="44">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34:Y34 W47:Y47 W58:Y58">
-    <cfRule type="expression" dxfId="9" priority="33">
+    <cfRule type="expression" dxfId="13" priority="33">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="34">
+    <cfRule type="expression" dxfId="12" priority="34">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AC34 AA47:AC47 AA58:AC58">
-    <cfRule type="expression" dxfId="7" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="24">
+    <cfRule type="expression" dxfId="10" priority="24">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:E57 B35:E45">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A57 A35:A45">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA48:AC57 W48:Y57 S48:U57 O48:Q57 K48:M57 G48:I57 G35:I46 K35:M46 O35:Q46 S35:U46 W35:Y46 AA35:AC46 AA7:AC30 W7:Y30 S7:U30 O7:Q30 K7:M30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Weclapp_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25456A2F-234E-42AD-835C-6992FEAC6486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BEDA1E-D6B3-4380-A22C-60342C92319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1652,24 +1652,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1679,14 +1661,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1706,73 +1697,38 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <b val="0"/>
@@ -2937,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I61" activeCellId="29" sqref="I7:I31 M7:M30 M31 Q7:Q31 U7:U31 Y7:Y31 AC7:AC31 AG7:AG31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 AC35:AC46 AG35:AG46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 AC48:AC58 AG48:AG58 AG61:AG68 AC61:AC68 Y61:Y68 U61:U68 Q61:Q68 M61:M68 I62:I68 I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2994,42 +2950,42 @@
         <v>64</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="96"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
-      <c r="O4" s="94" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="93"/>
+      <c r="O4" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="96"/>
-      <c r="S4" s="94" t="s">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="93"/>
+      <c r="S4" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="95"/>
-      <c r="U4" s="96"/>
-      <c r="W4" s="94" t="s">
+      <c r="T4" s="92"/>
+      <c r="U4" s="93"/>
+      <c r="W4" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="96"/>
-      <c r="AA4" s="94" t="s">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="93"/>
+      <c r="AA4" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="96"/>
-      <c r="AE4" s="97" t="s">
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AE4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="99"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="96"/>
     </row>
     <row r="5" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4443,41 +4399,41 @@
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
       <c r="E33" s="41"/>
-      <c r="G33" s="91" t="s">
+      <c r="G33" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="K33" s="91" t="s">
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
+      <c r="K33" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="92"/>
-      <c r="M33" s="93"/>
-      <c r="O33" s="85" t="s">
+      <c r="L33" s="104"/>
+      <c r="M33" s="105"/>
+      <c r="O33" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="87"/>
-      <c r="S33" s="85" t="s">
+      <c r="P33" s="101"/>
+      <c r="Q33" s="102"/>
+      <c r="S33" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="T33" s="86"/>
-      <c r="U33" s="87"/>
-      <c r="W33" s="85" t="s">
+      <c r="T33" s="101"/>
+      <c r="U33" s="102"/>
+      <c r="W33" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="87"/>
-      <c r="AA33" s="85" t="s">
+      <c r="X33" s="101"/>
+      <c r="Y33" s="102"/>
+      <c r="AA33" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="AB33" s="86"/>
-      <c r="AC33" s="87"/>
-      <c r="AE33" s="82" t="s">
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="102"/>
+      <c r="AE33" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="AF33" s="83"/>
-      <c r="AG33" s="84"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="99"/>
     </row>
     <row r="34" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
@@ -5413,11 +5369,11 @@
       <c r="A61" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="104"/>
-      <c r="D61" s="105"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="90"/>
       <c r="E61" s="26"/>
       <c r="G61" s="54"/>
       <c r="H61" s="18"/>
@@ -5445,11 +5401,11 @@
       <c r="A62" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="89"/>
-      <c r="D62" s="90"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
       <c r="E62" s="28"/>
       <c r="G62" s="54"/>
       <c r="H62" s="18"/>
@@ -5477,11 +5433,11 @@
       <c r="A63" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="90"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
       <c r="E63" s="28"/>
       <c r="G63" s="54"/>
       <c r="H63" s="18"/>
@@ -5509,11 +5465,11 @@
       <c r="A64" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="88" t="s">
+      <c r="B64" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="89"/>
-      <c r="D64" s="90"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="28"/>
       <c r="G64" s="54"/>
       <c r="H64" s="18"/>
@@ -5541,11 +5497,11 @@
       <c r="A65" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="84"/>
       <c r="E65" s="28"/>
       <c r="G65" s="54"/>
       <c r="H65" s="18"/>
@@ -5571,9 +5527,9 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="84"/>
       <c r="E66" s="28"/>
       <c r="G66" s="54"/>
       <c r="H66" s="18"/>
@@ -5599,9 +5555,9 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="90"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="84"/>
       <c r="E67" s="28"/>
       <c r="G67" s="54"/>
       <c r="H67" s="18"/>
@@ -5627,9 +5583,9 @@
     </row>
     <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="102"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="87"/>
       <c r="E68" s="30"/>
       <c r="G68" s="55"/>
       <c r="H68" s="56"/>
@@ -5663,20 +5619,6 @@
     <protectedRange sqref="A35:E46 A48:E58 W48:Y58 AA48:AC58 G48:I58 K48:M58 O48:Q58 S48:U58" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="22">
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="AE33:AG33"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="B66:D66"/>
@@ -5685,204 +5627,218 @@
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <conditionalFormatting sqref="A31:E32 AE10:AG32 B7:E30 G7:I32 K31:M32 O31:Q32 G61:I67 K61:M67 O61:Q67 S61:U67 W61:Y67 AA61:AC67">
-    <cfRule type="expression" dxfId="53" priority="165">
+    <cfRule type="expression" dxfId="49" priority="165">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="166">
+    <cfRule type="expression" dxfId="48" priority="166">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE61:AG68">
-    <cfRule type="expression" dxfId="51" priority="163">
+    <cfRule type="expression" dxfId="47" priority="163">
       <formula>$C61="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="164">
+    <cfRule type="expression" dxfId="46" priority="164">
       <formula>$D61="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:M68">
-    <cfRule type="expression" dxfId="49" priority="157">
+    <cfRule type="expression" dxfId="45" priority="157">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="158">
+    <cfRule type="expression" dxfId="44" priority="158">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O68:Q68">
-    <cfRule type="expression" dxfId="47" priority="159">
+    <cfRule type="expression" dxfId="43" priority="159">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="160">
+    <cfRule type="expression" dxfId="42" priority="160">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA68:AC68">
-    <cfRule type="expression" dxfId="45" priority="145">
+    <cfRule type="expression" dxfId="41" priority="145">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="146">
+    <cfRule type="expression" dxfId="40" priority="146">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:I68">
-    <cfRule type="expression" dxfId="43" priority="155">
+    <cfRule type="expression" dxfId="39" priority="155">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="156">
+    <cfRule type="expression" dxfId="38" priority="156">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A30">
-    <cfRule type="expression" dxfId="41" priority="153">
+    <cfRule type="expression" dxfId="37" priority="153">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="154">
+    <cfRule type="expression" dxfId="36" priority="154">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA31:AC32">
-    <cfRule type="expression" dxfId="39" priority="147">
+    <cfRule type="expression" dxfId="35" priority="147">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="148">
+    <cfRule type="expression" dxfId="34" priority="148">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:U68">
-    <cfRule type="expression" dxfId="37" priority="139">
+    <cfRule type="expression" dxfId="33" priority="139">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="140">
+    <cfRule type="expression" dxfId="32" priority="140">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W68:Y68">
-    <cfRule type="expression" dxfId="35" priority="133">
+    <cfRule type="expression" dxfId="31" priority="133">
       <formula>$C68="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="134">
+    <cfRule type="expression" dxfId="30" priority="134">
       <formula>$D68="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:U32">
-    <cfRule type="expression" dxfId="33" priority="141">
+    <cfRule type="expression" dxfId="29" priority="141">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="142">
+    <cfRule type="expression" dxfId="28" priority="142">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:Y32">
-    <cfRule type="expression" dxfId="31" priority="135">
+    <cfRule type="expression" dxfId="27" priority="135">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="136">
+    <cfRule type="expression" dxfId="26" priority="136">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:E59 G59:I59 K59:M59 O59:Q59 S59:U59 AE59 AA59:AC59 W59:Y59">
-    <cfRule type="expression" dxfId="29" priority="91">
+    <cfRule type="expression" dxfId="25" priority="91">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="92">
+    <cfRule type="expression" dxfId="24" priority="92">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:E34 A46:E47 A58:E58 G58:I58 G47:I47 G34:I34 K34:M34 K47:M47 K58:M58 O58:Q58 O47:Q47 O34:Q34">
-    <cfRule type="expression" dxfId="27" priority="89">
+    <cfRule type="expression" dxfId="23" priority="89">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="90">
+    <cfRule type="expression" dxfId="22" priority="90">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE33:AG34 AE47:AG47">
-    <cfRule type="expression" dxfId="25" priority="53">
+    <cfRule type="expression" dxfId="21" priority="53">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="54">
+    <cfRule type="expression" dxfId="20" priority="54">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE35:AG45">
-    <cfRule type="expression" dxfId="23" priority="51">
+    <cfRule type="expression" dxfId="19" priority="51">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="52">
+    <cfRule type="expression" dxfId="18" priority="52">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE48:AG57">
-    <cfRule type="expression" dxfId="21" priority="49">
+    <cfRule type="expression" dxfId="17" priority="49">
       <formula>$C48="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="50">
+    <cfRule type="expression" dxfId="16" priority="50">
       <formula>$D48="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE58:AG58">
-    <cfRule type="expression" dxfId="19" priority="47">
+    <cfRule type="expression" dxfId="15" priority="47">
       <formula>$C58="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="48">
+    <cfRule type="expression" dxfId="14" priority="48">
       <formula>$D58="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE46:AG46">
-    <cfRule type="expression" dxfId="17" priority="45">
+    <cfRule type="expression" dxfId="13" priority="45">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="46">
+    <cfRule type="expression" dxfId="12" priority="46">
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:U34 S47:U47 S58:U58">
-    <cfRule type="expression" dxfId="15" priority="43">
+    <cfRule type="expression" dxfId="11" priority="43">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="44">
+    <cfRule type="expression" dxfId="10" priority="44">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34:Y34 W47:Y47 W58:Y58">
-    <cfRule type="expression" dxfId="13" priority="33">
+    <cfRule type="expression" dxfId="9" priority="33">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="34">
+    <cfRule type="expression" dxfId="8" priority="34">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AC34 AA47:AC47 AA58:AC58">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="7" priority="23">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24">
+    <cfRule type="expression" dxfId="6" priority="24">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:E57 B35:E45">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A57 A35:A45">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA48:AC57 W48:Y57 S48:U57 O48:Q57 K48:M57 G48:I57 G35:I46 K35:M46 O35:Q46 S35:U46 W35:Y46 AA35:AC46 AA7:AC30 W7:Y30 S7:U30 O7:Q30 K7:M30">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5890,8 +5846,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D31 C48:D58 C35:D46" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 AC7:AC31 AG7:AG31 AG35:AG46 AC35:AC46 Y35:Y46 U35:U46 Q35:Q46 M35:M46 I35:I46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 AC48:AC58 AG48:AG58 I61:I68 M61:M68 Q61:Q68 U61:U68 Y61:Y68 AC61:AC68 AG61:AG68" xr:uid="{413233B0-BAA4-40B0-83B8-C7DFB9326460}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M30 M31 Q7:Q31 U7:U31 Y7:Y31 AC7:AC31 AG7:AG31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 AC35:AC46 AG35:AG46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 AC48:AC58 AG48:AG58 AG61:AG68 AC61:AC68 Y61:Y68 U61:U68 Q61:Q68 M61:M68 I62:I68 I61" xr:uid="{5E852306-1CB5-4C47-A48E-F69D8672CF51}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
